--- a/ele/Blackbox/main_board/BOM.xlsx
+++ b/ele/Blackbox/main_board/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas_Vavrinec\Documents\GitHub\SOC\ele\Blackbox\main_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC114FDF-27C4-4658-BE5B-77C21F72C5D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEC367B-683A-46C2-B191-116B6F4E87E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0C6DAACC-D0AB-418E-850A-5307B67BA29C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0C6DAACC-D0AB-418E-850A-5307B67BA29C}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -109,9 +109,6 @@
     <t>220nF</t>
   </si>
   <si>
-    <t>C6</t>
-  </si>
-  <si>
     <t>C21120</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>D1-2</t>
   </si>
   <si>
-    <t>SMC,DO-214AB</t>
-  </si>
-  <si>
     <t>C284071</t>
   </si>
   <si>
@@ -290,6 +284,12 @@
   </si>
   <si>
     <t>C114583</t>
+  </si>
+  <si>
+    <t>SMB,DO-214AA</t>
+  </si>
+  <si>
+    <t>C6,C75,C76</t>
   </si>
 </sst>
 </file>
@@ -869,7 +869,7 @@
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -938,261 +938,261 @@
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="15"/>
       <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="15"/>
       <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="15"/>
       <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="D15" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="A21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="D21" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="A22" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="19"/>
       <c r="B24" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>73</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1"/>

--- a/ele/Blackbox/main_board/BOM.xlsx
+++ b/ele/Blackbox/main_board/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas_Vavrinec\Documents\GitHub\SOC\ele\Blackbox\main_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEC367B-683A-46C2-B191-116B6F4E87E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68C83B0-2DD4-41FC-8D4A-FEFDA042C3F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0C6DAACC-D0AB-418E-850A-5307B67BA29C}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11430" xr2:uid="{0C6DAACC-D0AB-418E-850A-5307B67BA29C}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="78">
   <si>
     <t>Comment</t>
   </si>
@@ -40,6 +40,202 @@
   </si>
   <si>
     <t>Footprint</t>
+  </si>
+  <si>
+    <t>2.2nF</t>
+  </si>
+  <si>
+    <t>C1,C2</t>
+  </si>
+  <si>
+    <t>0402_C</t>
+  </si>
+  <si>
+    <t>C1531</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3, C4, C8 
+</t>
+  </si>
+  <si>
+    <t>C307331</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C15195</t>
+  </si>
+  <si>
+    <t>220nF</t>
+  </si>
+  <si>
+    <t>C9-68</t>
+  </si>
+  <si>
+    <t>D1-2</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>SOIC-16_7.5x10.3x1.27P</t>
+  </si>
+  <si>
+    <t>C9866</t>
+  </si>
+  <si>
+    <t>IC2</t>
+  </si>
+  <si>
+    <t>LGA-16_3x3x0.5P</t>
+  </si>
+  <si>
+    <t>C192585</t>
+  </si>
+  <si>
+    <t>LED4</t>
+  </si>
+  <si>
+    <t>LED_0603</t>
+  </si>
+  <si>
+    <t>C72041</t>
+  </si>
+  <si>
+    <t>MAX1</t>
+  </si>
+  <si>
+    <t>SOIC-8_3.9x4.9x1.27P</t>
+  </si>
+  <si>
+    <t>C19738</t>
+  </si>
+  <si>
+    <t>SOT-23-3</t>
+  </si>
+  <si>
+    <t>C232275</t>
+  </si>
+  <si>
+    <t>Q2,Q3,Q8,Q9</t>
+  </si>
+  <si>
+    <t>SOP-8_EP_5.0x5.0x1.27P</t>
+  </si>
+  <si>
+    <t>C180399</t>
+  </si>
+  <si>
+    <t>12KΩ</t>
+  </si>
+  <si>
+    <t>R2-5,R8-9,R16,R20,R24</t>
+  </si>
+  <si>
+    <t>0402_R</t>
+  </si>
+  <si>
+    <t>C25752</t>
+  </si>
+  <si>
+    <t>300KΩ</t>
+  </si>
+  <si>
+    <t>C25102</t>
+  </si>
+  <si>
+    <t>220Ω</t>
+  </si>
+  <si>
+    <t>C25092</t>
+  </si>
+  <si>
+    <t>100KΩ</t>
+  </si>
+  <si>
+    <t>C25741</t>
+  </si>
+  <si>
+    <t>120Ω</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>C25750</t>
+  </si>
+  <si>
+    <t>20KΩ</t>
+  </si>
+  <si>
+    <t>R13-14</t>
+  </si>
+  <si>
+    <t>C25765</t>
+  </si>
+  <si>
+    <t>330KΩ</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>0603_R</t>
+  </si>
+  <si>
+    <t>C23137</t>
+  </si>
+  <si>
+    <t>1MΩ</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>C22935</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>QFN-24_EP_4.0x4.0x0.5P</t>
+  </si>
+  <si>
+    <t>C24112</t>
+  </si>
+  <si>
+    <t>U$2-61</t>
+  </si>
+  <si>
+    <t>LED-4_3535</t>
+  </si>
+  <si>
+    <t>C114583</t>
+  </si>
+  <si>
+    <t>SMB,DO-214AA</t>
+  </si>
+  <si>
+    <t>C6,C75,C76</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>0805_C</t>
+  </si>
+  <si>
+    <t>C15850</t>
+  </si>
+  <si>
+    <t>C122850</t>
   </si>
   <si>
     <r>
@@ -48,7 +244,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFC00000"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -57,7 +253,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFC00000"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
@@ -67,7 +263,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFC00000"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -75,247 +271,44 @@
     </r>
   </si>
   <si>
-    <t>2.2nF</t>
-  </si>
-  <si>
-    <t>C1,C2</t>
-  </si>
-  <si>
-    <t>0402_C</t>
-  </si>
-  <si>
-    <t>C1531</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3, C4, C8 
-</t>
-  </si>
-  <si>
-    <t>C307331</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C5,C69,C70,C72,C73,C74</t>
-  </si>
-  <si>
-    <t>C15195</t>
-  </si>
-  <si>
-    <t>220nF</t>
-  </si>
-  <si>
-    <t>C21120</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>C7,C71</t>
-  </si>
-  <si>
-    <t>C1779</t>
-  </si>
-  <si>
-    <t>18pF</t>
-  </si>
-  <si>
-    <t>C9-68</t>
-  </si>
-  <si>
-    <t>C1647</t>
-  </si>
-  <si>
-    <t>D1-2</t>
-  </si>
-  <si>
-    <t>C284071</t>
-  </si>
-  <si>
-    <t>IC1</t>
-  </si>
-  <si>
-    <t>SOIC-16_7.5x10.3x1.27P</t>
-  </si>
-  <si>
-    <t>C9866</t>
-  </si>
-  <si>
-    <t>IC2</t>
-  </si>
-  <si>
-    <t>LGA-16_3x3x0.5P</t>
-  </si>
-  <si>
-    <t>C192585</t>
-  </si>
-  <si>
-    <t>LED4</t>
-  </si>
-  <si>
-    <t>LED_0603</t>
-  </si>
-  <si>
-    <t>C72041</t>
-  </si>
-  <si>
-    <t>MAX1</t>
-  </si>
-  <si>
-    <t>SOIC-8_3.9x4.9x1.27P</t>
-  </si>
-  <si>
-    <t>C19738</t>
-  </si>
-  <si>
-    <t>Q1,Q4,Q5,Q6,Q10</t>
-  </si>
-  <si>
-    <t>SOT-23-3</t>
-  </si>
-  <si>
-    <t>C232275</t>
-  </si>
-  <si>
-    <t>Q2,Q3,Q8,Q9</t>
-  </si>
-  <si>
-    <t>SOP-8_EP_5.0x5.0x1.27P</t>
-  </si>
-  <si>
-    <t>C180399</t>
-  </si>
-  <si>
-    <t>12KΩ</t>
-  </si>
-  <si>
-    <t>R2-5,R8-9,R16,R20,R24</t>
-  </si>
-  <si>
-    <t>0402_R</t>
-  </si>
-  <si>
-    <t>C25752</t>
-  </si>
-  <si>
-    <t>300KΩ</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>C25102</t>
-  </si>
-  <si>
-    <t>220Ω</t>
-  </si>
-  <si>
-    <t>R7,R10,R21,R23,R25,R26,R47</t>
-  </si>
-  <si>
-    <t>C25092</t>
-  </si>
-  <si>
-    <t>100KΩ</t>
-  </si>
-  <si>
-    <t>R11,R17,R19,R22</t>
-  </si>
-  <si>
-    <t>C25741</t>
-  </si>
-  <si>
-    <t>120Ω</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>C25750</t>
-  </si>
-  <si>
-    <t>20KΩ</t>
-  </si>
-  <si>
-    <t>R13-14</t>
-  </si>
-  <si>
-    <t>C25765</t>
-  </si>
-  <si>
-    <t>330KΩ</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>0603_R</t>
-  </si>
-  <si>
-    <t>C23137</t>
-  </si>
-  <si>
-    <t>1MΩ</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>C22935</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>QFN-24_EP_4.0x4.0x0.5P</t>
-  </si>
-  <si>
-    <t>C24112</t>
-  </si>
-  <si>
-    <t>U$2-61</t>
-  </si>
-  <si>
-    <t>LED-4_3535</t>
-  </si>
-  <si>
-    <t>C114583</t>
-  </si>
-  <si>
-    <t>SMB,DO-214AA</t>
-  </si>
-  <si>
-    <t>C6,C75,C76</t>
+    <t>Q1,Q5,Q6,Q7,Q10</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>R1,R6</t>
+  </si>
+  <si>
+    <t>R7,R10,R21,R23,R25,R26</t>
+  </si>
+  <si>
+    <t>R17,R19,R22</t>
+  </si>
+  <si>
+    <t>C16772</t>
+  </si>
+  <si>
+    <t>C7,C69,C70,C71,C72,C73,C74,C77</t>
+  </si>
+  <si>
+    <t>C110482</t>
+  </si>
+  <si>
+    <t>C47129</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -338,6 +331,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -502,21 +513,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,32 +536,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -866,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542A8D27-F7C8-4BF3-B4D8-98A7544B414A}">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -877,332 +889,348 @@
     <col min="1" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="B4" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1">
+      <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="B6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="C7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="C8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="16" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="D10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="16" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="5" t="s">
+      <c r="C11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="16" t="s">
+      <c r="D11" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="5" t="s">
+    <row r="12" spans="1:5" ht="15" customHeight="1">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D12" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="5" t="s">
+    <row r="13" spans="1:5" ht="15" customHeight="1">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D13" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="16" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="5" t="s">
+      <c r="C15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="16" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D16" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="5" t="s">
+    <row r="17" spans="1:8" ht="15" customHeight="1">
+      <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="16" t="s">
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1">
+      <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="5" t="s">
+      <c r="B18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="B19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1">
-      <c r="A15" s="15" t="s">
+    <row r="20" spans="1:8" ht="15" customHeight="1">
+      <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="16" t="s">
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1">
+      <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1">
-      <c r="A16" s="15" t="s">
+      <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="16" t="s">
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1">
+      <c r="A22" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
-      <c r="A17" s="15" t="s">
+      <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="16" t="s">
+      <c r="D22" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
-      <c r="A18" s="15" t="s">
+    <row r="23" spans="1:8" ht="15" customHeight="1">
+      <c r="A23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="17" t="s">
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
-      <c r="A19" s="18" t="s">
+    <row r="24" spans="1:8" ht="15" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="D24" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
-      <c r="A20" s="18" t="s">
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="16" t="s">
+      <c r="D25" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
-      <c r="A21" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="A22" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1"/>
-    <row r="26" spans="1:4" ht="15" customHeight="1"/>
-    <row r="27" spans="1:4" ht="15" customHeight="1"/>
-    <row r="28" spans="1:4" ht="15" customHeight="1"/>
-    <row r="29" spans="1:4" ht="15" customHeight="1"/>
-    <row r="30" spans="1:4" ht="15" customHeight="1"/>
-    <row r="31" spans="1:4" ht="15" customHeight="1"/>
-    <row r="32" spans="1:4" ht="15" customHeight="1"/>
+    <row r="26" spans="1:8" ht="15" customHeight="1"/>
+    <row r="27" spans="1:8" ht="15" customHeight="1">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1"/>
+    <row r="29" spans="1:8" ht="15" customHeight="1"/>
+    <row r="30" spans="1:8" ht="15" customHeight="1"/>
+    <row r="31" spans="1:8" ht="15" customHeight="1"/>
+    <row r="32" spans="1:8" ht="15" customHeight="1"/>
     <row r="33" ht="15" customHeight="1"/>
     <row r="34" ht="15" customHeight="1"/>
     <row r="35" ht="15" customHeight="1"/>
@@ -1263,7 +1291,9 @@
     <row r="90" ht="15" customHeight="1"/>
     <row r="91" ht="15" customHeight="1"/>
     <row r="92" ht="15" customHeight="1"/>
+    <row r="93" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>